--- a/frontend/tesis-proyecto/src/assets/plantilla01_gameplay.xlsx
+++ b/frontend/tesis-proyecto/src/assets/plantilla01_gameplay.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epnecuador-my.sharepoint.com/personal/pamela_pachacama_epn_edu_ec/Documents/Plan-Tesis/Tesis/plantillas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\caso-estudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92BCF795-720D-45FC-8137-A1CB82316408}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598F5DE3-DFF6-471D-AFE9-056F20F78B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980" xr2:uid="{47F2E87F-8165-47E3-8877-0F821E684894}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{47F2E87F-8165-47E3-8877-0F821E684894}"/>
   </bookViews>
   <sheets>
     <sheet name="plantilla_GP" sheetId="1" r:id="rId1"/>
-    <sheet name="bloques_GP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -24,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -36,13 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>REQUERIMIENTOS DE GAMEPLAY</t>
   </si>
@@ -53,24 +44,6 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>BLOQUES GAMEPLAY</t>
-  </si>
-  <si>
-    <t>BLOQUES GAMEPLAY2</t>
-  </si>
-  <si>
-    <t>BLOQUES GAMEPLAY3</t>
-  </si>
-  <si>
-    <t>BLOQUES GAMEPLAY4</t>
-  </si>
-  <si>
-    <t>BLOQUES GAMEPLAY5</t>
-  </si>
-  <si>
-    <t>BLOQUES GAMEPLAY6</t>
-  </si>
-  <si>
     <t>CORRECTO</t>
   </si>
   <si>
@@ -107,59 +80,329 @@
     <t>NECESARIO</t>
   </si>
   <si>
-    <t>RECOGER</t>
-  </si>
-  <si>
-    <t>CREAR</t>
-  </si>
-  <si>
-    <t>NINGUNA</t>
-  </si>
-  <si>
-    <t>RESPUESTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESTIONAR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TENER SUERTE </t>
-  </si>
-  <si>
-    <t>DISPARAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOQUEAR </t>
-  </si>
-  <si>
-    <t>DESTRUIR</t>
-  </si>
-  <si>
-    <t>MOVER</t>
-  </si>
-  <si>
-    <t>EVITAR</t>
-  </si>
-  <si>
-    <t>MANTENER</t>
-  </si>
-  <si>
-    <t>POSICIÓN</t>
-  </si>
-  <si>
-    <t>TIEMPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUNTUACIÓN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JUGUETE</t>
+    <t>Si = 1</t>
+  </si>
+  <si>
+    <t>No = 0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">¿El diseño funcional del juego  que contiene la tarjeta GamePlay es </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">conforme </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>con todas las opiniones de los participantes?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La tarjeta GamePlay es </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>consistente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no se contradice con el diseño inicial propuesto del juego?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La tarjeta GamePlay mantene su </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trazabilidad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> respetando el principio del diseño del juego?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La tarjeta GamePlay no se puede dividir en otras funcionalidades es </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>singula</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La tarjeta GamePlay puede ser mejorada o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>modificada</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>La tarjeta GamePlay  requiere aclaración para ser implementado, no esta con</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ambiegüedad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Es </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>factible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> realizar esta funcionalidad en la plataforma tecnólogica que  se va a desarrollar?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El GamePlay  es </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>verificable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La tarjeta GamePlay  es  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>necesario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que sea implementada?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Existe sinergia entre la tarjeta GamePlay con la historia/narrativa/ género. Existe consistencia es </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apropiado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La tarjeta GamePlay esta relacionado a la funcionalidad que el usuario necesita, de acuerdo a su alcance. Es  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>correcto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La tarjeta GamePlay incluye BLOQUES  gameplay. Esta </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>completa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> respetanto el formato?</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +418,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,7 +434,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -320,32 +570,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,24 +642,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -384,46 +666,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{95F2A332-7A13-4520-9C3F-AE4D4EC49D0E}" name="Tabla3" displayName="Tabla3" ref="A6:T24" totalsRowShown="0">
-  <autoFilter ref="A6:T24" xr:uid="{C751028D-8CCE-4A21-98F7-9E8357EAAD28}"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{95F2A332-7A13-4520-9C3F-AE4D4EC49D0E}" name="Tabla3" displayName="Tabla3" ref="A6:N24" totalsRowShown="0">
+  <autoFilter ref="A6:N24" xr:uid="{C751028D-8CCE-4A21-98F7-9E8357EAAD28}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{EC7B17BA-DFB0-47B9-8A4D-86715D77BB81}" name="Identificador"/>
     <tableColumn id="2" xr3:uid="{FB177E69-46EA-4FF7-B99D-D1E87B897928}" name="Descripción"/>
-    <tableColumn id="20" xr3:uid="{CB17F24E-98C3-45B6-BB0A-B05AB044827B}" name="BLOQUES GAMEPLAY"/>
-    <tableColumn id="19" xr3:uid="{38FBC08F-8F5D-44F9-8333-7981FEE4A34A}" name="BLOQUES GAMEPLAY2"/>
-    <tableColumn id="18" xr3:uid="{7F12DCDA-298A-43BA-8448-B1ACEC5D6921}" name="BLOQUES GAMEPLAY3"/>
-    <tableColumn id="17" xr3:uid="{03660A0D-CACF-494C-AFA0-7F5E7E33A935}" name="BLOQUES GAMEPLAY4"/>
-    <tableColumn id="21" xr3:uid="{B092291E-364C-445D-8A26-65EAD8568EE8}" name="BLOQUES GAMEPLAY5"/>
-    <tableColumn id="9" xr3:uid="{4E68E211-B8A8-46AA-A18D-115C257F4061}" name="BLOQUES GAMEPLAY6"/>
-    <tableColumn id="3" xr3:uid="{F56CFDEB-A780-4696-97C0-B816309427BF}" name="CORRECTO"/>
-    <tableColumn id="4" xr3:uid="{2AA2EBC2-1E8A-4D16-B13B-5B9E27434CF2}" name="APROPIADO"/>
-    <tableColumn id="5" xr3:uid="{B4BFDF2F-A3EC-45F0-A883-0DAB5E6B5BF7}" name="COMPLETO"/>
+    <tableColumn id="8" xr3:uid="{D30CD16A-CCCB-4A0E-951F-FF8BA41E9F45}" name="COMPLETO"/>
+    <tableColumn id="3" xr3:uid="{F56CFDEB-A780-4696-97C0-B816309427BF}" name="APROPIADO"/>
+    <tableColumn id="4" xr3:uid="{2AA2EBC2-1E8A-4D16-B13B-5B9E27434CF2}" name="CORRECTO"/>
+    <tableColumn id="5" xr3:uid="{B4BFDF2F-A3EC-45F0-A883-0DAB5E6B5BF7}" name="NECESARIO"/>
     <tableColumn id="6" xr3:uid="{D981C983-5363-4CDF-82DC-5C5834CB865E}" name="VERIFICABLE"/>
     <tableColumn id="7" xr3:uid="{2641FE73-1C70-468A-8FEB-50D39505D283}" name="FACTIBLE"/>
     <tableColumn id="10" xr3:uid="{4E8BDEDF-8828-4DB7-A46E-CEEC69E2BAA0}" name="SIN AMBIGÜEDAD"/>
-    <tableColumn id="11" xr3:uid="{25CF7C27-3302-4D81-8922-5C8BAA93A85E}" name="SINGULAR"/>
-    <tableColumn id="12" xr3:uid="{652D7985-9710-4E8E-A89B-61BFEA07BC22}" name="TRAZABILIDAD"/>
-    <tableColumn id="13" xr3:uid="{C5C519B8-7C75-4F09-AAE0-ACB3390370E8}" name="MODIFICABLE"/>
+    <tableColumn id="11" xr3:uid="{25CF7C27-3302-4D81-8922-5C8BAA93A85E}" name="MODIFICABLE"/>
+    <tableColumn id="12" xr3:uid="{652D7985-9710-4E8E-A89B-61BFEA07BC22}" name="SINGULAR"/>
+    <tableColumn id="13" xr3:uid="{C5C519B8-7C75-4F09-AAE0-ACB3390370E8}" name="TRAZABILIDAD"/>
     <tableColumn id="14" xr3:uid="{EC0B9F32-8D5F-4B51-9029-81711C4EC032}" name="CONSISTENTE"/>
     <tableColumn id="15" xr3:uid="{D1AF0846-651B-4D5F-94F5-990600629355}" name="CONFORME"/>
-    <tableColumn id="16" xr3:uid="{0350AC6E-6F06-44CE-89DE-8832BDE99161}" name="NECESARIO"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8814660-3DEF-4ADD-BD70-D35E29F8661B}" name="Tabla1" displayName="Tabla1" ref="B3:B19" totalsRowShown="0" dataDxfId="1">
-  <autoFilter ref="B3:B19" xr:uid="{21939565-BF11-4EAE-829F-992BDA9AD23D}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{64097E73-25D0-4E1C-A925-2873EA256475}" name="BLOQUES GAMEPLAY" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -719,389 +985,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F77CD26-DBE4-406B-BAE0-AA7895522EE9}">
-  <dimension ref="A2:T24"/>
+  <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20">
-      <c r="H2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="B5" s="12"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1">
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="54.75" customHeight="1" thickBot="1">
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A5" s="8" t="s">
+      <c r="B6" t="s">
         <v>2</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
         <v>12</v>
       </c>
-      <c r="K6" t="s">
+      <c r="N6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" t="s">
-        <v>21</v>
-      </c>
-      <c r="T6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="16.5" customHeight="1">
+    </row>
+    <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B7:B24" xr:uid="{0E47C32D-4A35-455C-8BD2-B61DC04BE483}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B7:C24" xr:uid="{0E47C32D-4A35-455C-8BD2-B61DC04BE483}"/>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6FCB4927-E6B1-48EF-BA0F-773B2F647170}">
-          <x14:formula1>
-            <xm:f>bloques_GP!$B$4:$B$19</xm:f>
-          </x14:formula1>
-          <xm:sqref>C7:H24</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E43455-E11B-44E7-A1ED-90BEC9FC06AB}">
-  <dimension ref="B3:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1111,15 +1237,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003EA9CA3072F1B347BC408EFC42EC3841" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5f0285a82cf92cb2d46e38df75f59349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bd3fdcdf-be40-4d47-8350-316166aac000" xmlns:ns4="ea7aedd1-105c-4060-9830-c001f957d1d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a51bce396de6bf37220d966cc0a3e852" ns3:_="" ns4:_="">
     <xsd:import namespace="bd3fdcdf-be40-4d47-8350-316166aac000"/>
@@ -1342,20 +1459,53 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02A49A03-8B48-4676-A7E0-B55C9B90FFE8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9D4E16A-D8D6-42FA-AE05-D648D13962FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bd3fdcdf-be40-4d47-8350-316166aac000"/>
+    <ds:schemaRef ds:uri="ea7aedd1-105c-4060-9830-c001f957d1d1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9D4E16A-D8D6-42FA-AE05-D648D13962FF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66A9824E-85DE-4423-A18D-FDBCCBA055D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66A9824E-85DE-4423-A18D-FDBCCBA055D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02A49A03-8B48-4676-A7E0-B55C9B90FFE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>